--- a/Input_files/Actual_testcases/Kaman/ALL_PAGES/END_TO_END/TC23_Verify_UserRegistration.xlsx
+++ b/Input_files/Actual_testcases/Kaman/ALL_PAGES/END_TO_END/TC23_Verify_UserRegistration.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Actual_testcases\Kaman\ALL_PAGES\END_TO_END\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanProd\Input_files\Actual_testcases\Kaman\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4E2557-D888-4A14-84A2-E59746BD5FE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5D4A47-F659-4A76-974C-9509237B0732}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
   <si>
     <t>TestCase</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Acctype</t>
+  </si>
+  <si>
+    <t>WAIT</t>
   </si>
 </sst>
 </file>
@@ -557,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -734,14 +737,10 @@
     <row r="12" spans="1:5">
       <c r="A12" s="3"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
@@ -750,7 +749,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
@@ -760,42 +759,32 @@
     <row r="14" spans="1:5">
       <c r="A14" s="3"/>
       <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3"/>
       <c r="B15" s="5" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3"/>
       <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
@@ -804,12 +793,53 @@
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3"/>
+      <c r="B18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3"/>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3"/>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -915,6 +945,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -1111,22 +1156,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1143,21 +1190,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Input_files/Actual_testcases/Kaman/ALL_PAGES/END_TO_END/TC23_Verify_UserRegistration.xlsx
+++ b/Input_files/Actual_testcases/Kaman/ALL_PAGES/END_TO_END/TC23_Verify_UserRegistration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanProd\Input_files\Actual_testcases\Kaman\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5D4A47-F659-4A76-974C-9509237B0732}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B58D79E-CACA-4FF3-8B69-C49877E822F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="38">
   <si>
     <t>TestCase</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>WAIT</t>
+  </si>
+  <si>
+    <t>SCROLL_DOWN</t>
   </si>
 </sst>
 </file>
@@ -560,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -621,30 +624,24 @@
     <row r="4" spans="1:5">
       <c r="A4" s="3"/>
       <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3"/>
@@ -652,43 +649,43 @@
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>19</v>
+      <c r="E7" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -697,13 +694,13 @@
         <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -712,32 +709,34 @@
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3"/>
-      <c r="B11" s="5" t="s">
-        <v>10</v>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3"/>
       <c r="B12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -749,7 +748,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
@@ -771,7 +770,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>9</v>
@@ -793,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>9</v>
@@ -803,17 +802,11 @@
     <row r="18" spans="1:5">
       <c r="A18" s="3"/>
       <c r="B18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
@@ -821,7 +814,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>9</v>
@@ -831,15 +824,52 @@
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
       <c r="B20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3"/>
+      <c r="B21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3"/>
+      <c r="B22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3"/>
+      <c r="B23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
